--- a/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -227,287 +227,287 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Alimentos</t>
+          <t xml:space="preserve">(R) Rectif. De Género Y Nombre, &gt; De 14 Y &lt; De 18 Años</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>170</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos Aumento</t>
+          <t xml:space="preserve">Adopcion</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos Rebaja</t>
+          <t xml:space="preserve">Alimentos</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos Rebaja</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
+          <t xml:space="preserve">Alimentos, Rebaja</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Autorizaciones</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Cuidado Del Niño, Otros</t>
+          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Cuidado Del Niño, Otros</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Declaracion De Bienes Familiares</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Declaracion De Bienes Familiares</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
+          <t xml:space="preserve">Desafectacion De Bienes Familiares</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Otros Asuntos De Tramitacion Ordinaria</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
+          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Divorcio Por Culpa</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
+          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Otros Asuntos De Tramitacion Ordinaria</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Patria Potestad, Otros</t>
+          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
+          <t xml:space="preserve">Patria Potestad Solicitud</t>
         </is>
       </c>
       <c r="B31" s="65">
@@ -517,60 +517,80 @@
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
+          <t xml:space="preserve">Patria Potestad, Otros</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Separacion Judicial De Bienes</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Separacion Judicial Por Comun Acuerdo</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Separacion Matrimonial</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
+          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
         </is>
       </c>
       <c r="B37" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">Separacion Matrimonial</t>
+        </is>
+      </c>
+      <c r="B38" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
+        </is>
+      </c>
+      <c r="B39" s="65">
         <v>2</v>
       </c>
     </row>
